--- a/excel/vgl01verf.xlsx
+++ b/excel/vgl01verf.xlsx
@@ -440,12 +440,12 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>23.00169604906754</v>
+        <v>16.60400725900208</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.0002925270369682483</v>
+        <v>0.0175295132545959</v>
       </c>
     </row>
     <row r="4">
@@ -470,7 +470,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.004006283526415366</v>
+        <v>0.005079584291494518</v>
       </c>
     </row>
     <row r="9">
@@ -510,12 +510,12 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-0.02122091833924207</v>
+        <v>-0.002733515281375581</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.002511185023621979</v>
+        <v>0.3493932988100342</v>
       </c>
     </row>
     <row r="18">
@@ -530,7 +530,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.007500079894997144</v>
+        <v>0.0048502757173714</v>
       </c>
     </row>
     <row r="21">
@@ -600,7 +600,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>-0.05193258009398664</v>
+        <v>-0.01491944101190208</v>
       </c>
     </row>
     <row r="35">
@@ -685,7 +685,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>-0.002897703082752998</v>
+        <v>0.003686869534561231</v>
       </c>
     </row>
   </sheetData>
